--- a/biology/Médecine/Agence_nationale_d'appui_à_la_performance_des_établissements_de_santé_et_médico-sociaux/Agence_nationale_d'appui_à_la_performance_des_établissements_de_santé_et_médico-sociaux.xlsx
+++ b/biology/Médecine/Agence_nationale_d'appui_à_la_performance_des_établissements_de_santé_et_médico-sociaux/Agence_nationale_d'appui_à_la_performance_des_établissements_de_santé_et_médico-sociaux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Agence_nationale_d%27appui_%C3%A0_la_performance_des_%C3%A9tablissements_de_sant%C3%A9_et_m%C3%A9dico-sociaux</t>
+          <t>Agence_nationale_d'appui_à_la_performance_des_établissements_de_santé_et_médico-sociaux</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’Agence nationale d’appui à la performance des établissements de santé et médico-sociaux, connue sous son acronyme ANAP, est un groupement d'intérêt public français chargé d’aider les établissements à améliorer leurs services par le biais d’outils et de recommandations. Elle a été créée en 2009 et est située à Paris.
-Pour la réalisation de ses missions, elle peut conduire des audits de structures de soins et appuyer méthodologiquement les Agences régionales de santé[1],[2].
-En janvier 2022, elle se réorganise, change de logo et devient l'Agence nationale de la performance sanitaire et médico-sociale[3],[4].
+Pour la réalisation de ses missions, elle peut conduire des audits de structures de soins et appuyer méthodologiquement les Agences régionales de santé,.
+En janvier 2022, elle se réorganise, change de logo et devient l'Agence nationale de la performance sanitaire et médico-sociale,.
 </t>
         </is>
       </c>
